--- a/Spring系列/springboot/复习版/01Springboot原理图.xlsx
+++ b/Spring系列/springboot/复习版/01Springboot原理图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -30,6 +30,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -38,46 +76,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,22 +107,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,58 +120,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -173,6 +127,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -183,19 +183,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,19 +321,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,139 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,26 +374,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,17 +392,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,26 +449,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,10 +482,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -494,133 +494,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,6 +999,105 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="922020"/>
+          <a:ext cx="1082040" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1950720" y="1828800"/>
+          <a:ext cx="1569720" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1263,7 +1362,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
